--- a/data/trans_orig/P43C-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P43C-Habitat-trans_orig.xlsx
@@ -624,19 +624,19 @@
         <v>317649</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>293094</v>
+        <v>291905</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>341950</v>
+        <v>343056</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.47088551049413</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.4344850707626621</v>
+        <v>0.4327222173461913</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.506908787612378</v>
+        <v>0.5085489933845295</v>
       </c>
     </row>
     <row r="5">
@@ -653,19 +653,19 @@
         <v>356929</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>332628</v>
+        <v>331522</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>381484</v>
+        <v>382673</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.52911448950587</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.493091212387622</v>
+        <v>0.4914510066154705</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.5655149292373379</v>
+        <v>0.5672777826538088</v>
       </c>
     </row>
     <row r="6">
@@ -715,19 +715,19 @@
         <v>495667</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>464466</v>
+        <v>463266</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>525417</v>
+        <v>526590</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.5182656318441955</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.485642080279817</v>
+        <v>0.4843867725261488</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.5493717668608471</v>
+        <v>0.5505985787839625</v>
       </c>
     </row>
     <row r="8">
@@ -744,19 +744,19 @@
         <v>460729</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>430979</v>
+        <v>429806</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>491930</v>
+        <v>493130</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.4817343681558044</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.450628233139153</v>
+        <v>0.4494014212160374</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.5143579197201831</v>
+        <v>0.5156132274738512</v>
       </c>
     </row>
     <row r="9">
@@ -806,19 +806,19 @@
         <v>381620</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>356819</v>
+        <v>355340</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>406500</v>
+        <v>406560</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.5659646648103035</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.5291840184525164</v>
+        <v>0.5269906630053444</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.6028639677951002</v>
+        <v>0.6029531539813541</v>
       </c>
     </row>
     <row r="11">
@@ -835,19 +835,19 @@
         <v>292662</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>267782</v>
+        <v>267722</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>317463</v>
+        <v>318942</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.4340353351896964</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3971360322048997</v>
+        <v>0.397046846018646</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.4708159815474837</v>
+        <v>0.4730093369946556</v>
       </c>
     </row>
     <row r="12">
@@ -897,19 +897,19 @@
         <v>595413</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>567207</v>
+        <v>566872</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>626008</v>
+        <v>628929</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.5827131117714884</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.5551091340819241</v>
+        <v>0.5547811690321827</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.6126558432940422</v>
+        <v>0.6155142096943753</v>
       </c>
     </row>
     <row r="14">
@@ -926,19 +926,19 @@
         <v>426381</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>395786</v>
+        <v>392865</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>454587</v>
+        <v>454922</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.4172868882285116</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3873441567059577</v>
+        <v>0.3844857903056247</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4448908659180759</v>
+        <v>0.4452188309678174</v>
       </c>
     </row>
     <row r="15">
@@ -988,19 +988,19 @@
         <v>1790349</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1730800</v>
+        <v>1725205</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>1846091</v>
+        <v>1843944</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.5381189638425683</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.5202205148780882</v>
+        <v>0.5185389829580822</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.5548732931486725</v>
+        <v>0.5542279318459997</v>
       </c>
     </row>
     <row r="17">
@@ -1017,19 +1017,19 @@
         <v>1536701</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1480959</v>
+        <v>1483106</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1596250</v>
+        <v>1601845</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.4618810361574317</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.4451267068513274</v>
+        <v>0.4457720681540002</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.4797794851219119</v>
+        <v>0.4814610170419177</v>
       </c>
     </row>
     <row r="18">
@@ -1197,19 +1197,19 @@
         <v>431039</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>402623</v>
+        <v>404509</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>456597</v>
+        <v>459261</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.6247488738251035</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.5835616583182545</v>
+        <v>0.5862961103117943</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.6617918437247773</v>
+        <v>0.6656534675545074</v>
       </c>
     </row>
     <row r="5">
@@ -1226,19 +1226,19 @@
         <v>258901</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>233343</v>
+        <v>230679</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>287317</v>
+        <v>285431</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3752511261748965</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3382081562752227</v>
+        <v>0.3343465324454927</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4164383416817456</v>
+        <v>0.4137038896882057</v>
       </c>
     </row>
     <row r="6">
@@ -1288,19 +1288,19 @@
         <v>662081</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>629821</v>
+        <v>629307</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>695044</v>
+        <v>693688</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.6460546897868864</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.6145756139425671</v>
+        <v>0.6140740278251272</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.6782196295808898</v>
+        <v>0.6768971206540529</v>
       </c>
     </row>
     <row r="8">
@@ -1317,19 +1317,19 @@
         <v>362725</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>329762</v>
+        <v>331118</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>394985</v>
+        <v>395499</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.3539453102131136</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.3217803704191101</v>
+        <v>0.3231028793459471</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3854243860574327</v>
+        <v>0.3859259721748728</v>
       </c>
     </row>
     <row r="9">
@@ -1379,19 +1379,19 @@
         <v>539760</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>510360</v>
+        <v>512473</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>565920</v>
+        <v>566518</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.7029599222795103</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.6646705131380782</v>
+        <v>0.6674224200235704</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.7370293990015374</v>
+        <v>0.7378080157670202</v>
       </c>
     </row>
     <row r="11">
@@ -1408,19 +1408,19 @@
         <v>228079</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>201919</v>
+        <v>201321</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>257479</v>
+        <v>255366</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2970400777204897</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2629706009984626</v>
+        <v>0.2621919842329798</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3353294868619218</v>
+        <v>0.3325775799764295</v>
       </c>
     </row>
     <row r="12">
@@ -1470,19 +1470,19 @@
         <v>660096</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>627073</v>
+        <v>629997</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>688743</v>
+        <v>693545</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.6348491290999557</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.6030884816208519</v>
+        <v>0.6059011365602581</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.66240010205916</v>
+        <v>0.6670178716011509</v>
       </c>
     </row>
     <row r="14">
@@ -1499,19 +1499,19 @@
         <v>379673</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>351026</v>
+        <v>346224</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>412696</v>
+        <v>409772</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.3651508709000443</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3375998979408401</v>
+        <v>0.3329821283988495</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3969115183791482</v>
+        <v>0.394098863439742</v>
       </c>
     </row>
     <row r="15">
@@ -1561,19 +1561,19 @@
         <v>2292976</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2230971</v>
+        <v>2232848</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>2347645</v>
+        <v>2351253</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.6509784238645352</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.6333750864083513</v>
+        <v>0.6339079466856339</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.6664989728235774</v>
+        <v>0.667523406241641</v>
       </c>
     </row>
     <row r="17">
@@ -1590,19 +1590,19 @@
         <v>1229377</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1174708</v>
+        <v>1171100</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1291382</v>
+        <v>1289505</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.3490215761354648</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.3335010271764227</v>
+        <v>0.332476593758359</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3666249135916487</v>
+        <v>0.3660920533143661</v>
       </c>
     </row>
     <row r="18">
@@ -1770,19 +1770,19 @@
         <v>370525</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>345663</v>
+        <v>343657</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>395878</v>
+        <v>395505</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.5567482914363315</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.5193898907671484</v>
+        <v>0.5163754276434599</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5948426567195708</v>
+        <v>0.5942827489954065</v>
       </c>
     </row>
     <row r="5">
@@ -1799,19 +1799,19 @@
         <v>294992</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>269639</v>
+        <v>270012</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>319854</v>
+        <v>321860</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.4432517085636684</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.4051573432804293</v>
+        <v>0.4057172510045935</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4806101092328517</v>
+        <v>0.4836245723565401</v>
       </c>
     </row>
     <row r="6">
@@ -1861,19 +1861,19 @@
         <v>668829</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>638781</v>
+        <v>637572</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>699199</v>
+        <v>698110</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.6515011978663791</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.6222312510523198</v>
+        <v>0.6210534301906345</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.6810843644745525</v>
+        <v>0.6800231007088682</v>
       </c>
     </row>
     <row r="8">
@@ -1890,19 +1890,19 @@
         <v>357768</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>327398</v>
+        <v>328487</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>387816</v>
+        <v>389025</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.3484988021336209</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.3189156355254475</v>
+        <v>0.3199768992911318</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3777687489476802</v>
+        <v>0.3789465698093655</v>
       </c>
     </row>
     <row r="9">
@@ -1952,19 +1952,19 @@
         <v>506968</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>478032</v>
+        <v>477908</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>534482</v>
+        <v>532057</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.6492897716238821</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.6122308507972142</v>
+        <v>0.6120718576747386</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.6845275791873991</v>
+        <v>0.681422116439412</v>
       </c>
     </row>
     <row r="11">
@@ -1981,19 +1981,19 @@
         <v>273836</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>246322</v>
+        <v>248747</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>302772</v>
+        <v>302896</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.3507102283761179</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3154724208126008</v>
+        <v>0.3185778835605879</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3877691492027858</v>
+        <v>0.3879281423252612</v>
       </c>
     </row>
     <row r="12">
@@ -2043,19 +2043,19 @@
         <v>695903</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>661914</v>
+        <v>664435</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>725049</v>
+        <v>726548</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.6731811636598362</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.6403020938396169</v>
+        <v>0.642740097059645</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.7013752829281406</v>
+        <v>0.7028257713490729</v>
       </c>
     </row>
     <row r="14">
@@ -2072,19 +2072,19 @@
         <v>337850</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>308704</v>
+        <v>307205</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>371839</v>
+        <v>369318</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.3268188363401638</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2986247170718594</v>
+        <v>0.2971742286509271</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3596979061603832</v>
+        <v>0.3572599029403549</v>
       </c>
     </row>
     <row r="15">
@@ -2134,19 +2134,19 @@
         <v>2242226</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2187883</v>
+        <v>2186278</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>2299293</v>
+        <v>2303313</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.6394171953292009</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.6239200703340392</v>
+        <v>0.623462457887602</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.6556910068448542</v>
+        <v>0.6568374336463259</v>
       </c>
     </row>
     <row r="17">
@@ -2163,19 +2163,19 @@
         <v>1264446</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1207379</v>
+        <v>1203359</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1318789</v>
+        <v>1320394</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.3605828046707991</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.3443089931551455</v>
+        <v>0.343162566353674</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3760799296659606</v>
+        <v>0.3765375421123973</v>
       </c>
     </row>
     <row r="18">
@@ -2343,19 +2343,19 @@
         <v>285437</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>266861</v>
+        <v>266143</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>309049</v>
+        <v>304678</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.5202679903453472</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.4864084309285479</v>
+        <v>0.4851002862013362</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5633046295630993</v>
+        <v>0.5553388544387736</v>
       </c>
     </row>
     <row r="5">
@@ -2372,19 +2372,19 @@
         <v>263198</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>239586</v>
+        <v>243957</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>281774</v>
+        <v>282492</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.4797320096546526</v>
+        <v>0.4797320096546527</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.4366953704369007</v>
+        <v>0.4446611455612264</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.5135915690714522</v>
+        <v>0.5148997137986639</v>
       </c>
     </row>
     <row r="6">
@@ -2434,19 +2434,19 @@
         <v>423599</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>395951</v>
+        <v>397357</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>448092</v>
+        <v>448378</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.5207256036169668</v>
+        <v>0.5207256036169666</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.486738483448688</v>
+        <v>0.4884672993702677</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.5508348461559245</v>
+        <v>0.5511869300782043</v>
       </c>
     </row>
     <row r="8">
@@ -2463,19 +2463,19 @@
         <v>389879</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>365386</v>
+        <v>365100</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>417527</v>
+        <v>416121</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.4792743963830333</v>
+        <v>0.4792743963830332</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.4491651538440756</v>
+        <v>0.4488130699217958</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.513261516551312</v>
+        <v>0.5115327006297323</v>
       </c>
     </row>
     <row r="9">
@@ -2525,19 +2525,19 @@
         <v>369563</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>347386</v>
+        <v>348389</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>391826</v>
+        <v>394009</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.6531057127282422</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.6139127654901281</v>
+        <v>0.6156866027964659</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.692449493400432</v>
+        <v>0.696308115437703</v>
       </c>
     </row>
     <row r="11">
@@ -2554,19 +2554,19 @@
         <v>196292</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>174029</v>
+        <v>171846</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>218469</v>
+        <v>217466</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.3468942872717577</v>
+        <v>0.3468942872717578</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.307550506599568</v>
+        <v>0.303691884562297</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.386087234509872</v>
+        <v>0.384313397203534</v>
       </c>
     </row>
     <row r="12">
@@ -2616,19 +2616,19 @@
         <v>531995</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>505954</v>
+        <v>506069</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>556786</v>
+        <v>557678</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.6244707790638863</v>
+        <v>0.6244707790638864</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.5939026432222995</v>
+        <v>0.5940378089342206</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.6535707851159936</v>
+        <v>0.6546174711834981</v>
       </c>
     </row>
     <row r="14">
@@ -2645,19 +2645,19 @@
         <v>319919</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>295128</v>
+        <v>294236</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>345960</v>
+        <v>345845</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.3755292209361137</v>
+        <v>0.3755292209361138</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3464292148840064</v>
+        <v>0.3453825288165017</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4060973567777002</v>
+        <v>0.4059621910657794</v>
       </c>
     </row>
     <row r="15">
@@ -2707,19 +2707,19 @@
         <v>1610595</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1562097</v>
+        <v>1561848</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>1656945</v>
+        <v>1659118</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.5793751845427149</v>
+        <v>0.5793751845427151</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.5619294092235907</v>
+        <v>0.5618397888916334</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.5960486258011589</v>
+        <v>0.5968302605884683</v>
       </c>
     </row>
     <row r="17">
@@ -2736,19 +2736,19 @@
         <v>1169287</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1122937</v>
+        <v>1120764</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1217785</v>
+        <v>1218034</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.420624815457285</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.403951374198841</v>
+        <v>0.4031697394115318</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.4380705907764085</v>
+        <v>0.4381602111083664</v>
       </c>
     </row>
     <row r="18">
